--- a/test_cases_part6.xlsx
+++ b/test_cases_part6.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="187">
   <si>
     <t xml:space="preserve">passed</t>
   </si>
@@ -1313,7 +1313,7 @@
   <dimension ref="B2:B4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G3" activeCellId="1" sqref="D7:D61 G3"/>
+      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1368,10 +1368,10 @@
   </sheetPr>
   <dimension ref="A1:Y84"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="7" topLeftCell="L61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D7" activeCellId="0" sqref="D7:D61"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="K7" activeCellId="0" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1497,7 +1497,9 @@
       <c r="H3" s="15"/>
       <c r="I3" s="14"/>
       <c r="J3" s="16"/>
-      <c r="K3" s="17"/>
+      <c r="K3" s="17" t="s">
+        <v>0</v>
+      </c>
       <c r="L3" s="8"/>
       <c r="M3" s="17"/>
       <c r="N3" s="8"/>
@@ -1532,7 +1534,9 @@
       <c r="H4" s="18"/>
       <c r="I4" s="14"/>
       <c r="J4" s="16"/>
-      <c r="K4" s="17"/>
+      <c r="K4" s="17" t="s">
+        <v>0</v>
+      </c>
       <c r="L4" s="8"/>
       <c r="M4" s="17"/>
       <c r="N4" s="8"/>
@@ -1567,7 +1571,9 @@
       <c r="H5" s="15"/>
       <c r="I5" s="14"/>
       <c r="J5" s="16"/>
-      <c r="K5" s="17"/>
+      <c r="K5" s="17" t="s">
+        <v>0</v>
+      </c>
       <c r="L5" s="8"/>
       <c r="M5" s="17"/>
       <c r="N5" s="8"/>
@@ -1602,7 +1608,9 @@
       <c r="H6" s="15"/>
       <c r="I6" s="14"/>
       <c r="J6" s="16"/>
-      <c r="K6" s="17"/>
+      <c r="K6" s="17" t="s">
+        <v>0</v>
+      </c>
       <c r="L6" s="8"/>
       <c r="M6" s="17"/>
       <c r="N6" s="8"/>
@@ -1637,7 +1645,9 @@
       <c r="H7" s="15"/>
       <c r="I7" s="14"/>
       <c r="J7" s="16"/>
-      <c r="K7" s="17"/>
+      <c r="K7" s="17" t="s">
+        <v>1</v>
+      </c>
       <c r="L7" s="8"/>
       <c r="M7" s="17"/>
       <c r="N7" s="8"/>
